--- a/data/Laboratorium problemowe 2.xlsx
+++ b/data/Laboratorium problemowe 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studia\problem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Materialy do nauki\Studia magisterskie\2 semestr\Laboratorium problemowe 2\Lab_problem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEADFD4-0E7B-48D6-973A-3B6692E126FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB26800F-0DED-4399-B4C4-A55B98BEAA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{28EF36A4-EA65-46BC-B437-9B64549947DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28EF36A4-EA65-46BC-B437-9B64549947DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Serwomechanizm" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>U</t>
   </si>
@@ -62,13 +62,16 @@
     <t>tarcza</t>
   </si>
   <si>
-    <t>151g</t>
-  </si>
-  <si>
     <t>średnica</t>
   </si>
   <si>
-    <t xml:space="preserve"> x</t>
+    <t>promień</t>
+  </si>
+  <si>
+    <t>moment bezwładności</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -442,7 +445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1075230815"/>
@@ -504,7 +507,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1075230335"/>
@@ -552,7 +555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1477,15 +1480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8296AF1C-72FB-4290-8141-60C28864AA8B}">
-  <dimension ref="B3:H31"/>
+  <dimension ref="B3:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="116" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="116" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-1</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>-214.6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-0.9</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>-192.1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-0.8</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>-170.1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-0.7</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>-147.19999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-0.6</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>-125.1</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>-0.5</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>-102.9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-0.4</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>-79.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>-0.3</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>-56.64</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-0.2</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>-33.4</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-0.1</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>-10.45</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.1</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.2</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.3</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.4</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.5</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>104.2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.6</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.7</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>148.69999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.8</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>171.3</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.9</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>194.3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>216.5</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1682,14 +1685,17 @@
       <c r="F30" t="s">
         <v>3</v>
       </c>
-      <c r="G30" t="s">
-        <v>8</v>
+      <c r="G30">
+        <v>151</v>
       </c>
       <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -1700,10 +1706,23 @@
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>11.1</v>
+      </c>
+      <c r="I31">
+        <f>0.5*(G30/1000)*(G32/100)^2</f>
+        <v>2.3255887500000001E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <f>G31/2</f>
+        <v>5.55</v>
       </c>
     </row>
   </sheetData>

--- a/data/Laboratorium problemowe 2.xlsx
+++ b/data/Laboratorium problemowe 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Materialy do nauki\Studia magisterskie\2 semestr\Laboratorium problemowe 2\Lab_problem\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studia\Lab_problem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB26800F-0DED-4399-B4C4-A55B98BEAA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF46D40-42FF-4A0C-AFCF-F65D2451B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28EF36A4-EA65-46BC-B437-9B64549947DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28EF36A4-EA65-46BC-B437-9B64549947DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Serwomechanizm" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>v[u]</a:t>
+              <a:t>Charakterystyka</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> statyczna silnika</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -193,7 +197,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -228,6 +232,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0135132806728767E-2"/>
+                  <c:y val="-2.4033553209319412E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Serwomechanizm!$B$4:$B$24</c:f>
@@ -235,67 +289,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.9</c:v>
+                  <c:v>-0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.8</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.7</c:v>
+                  <c:v>-0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.6</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.4</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.3</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.2</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.1</c:v>
+                  <c:v>-0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,7 +429,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42CE-449B-8FAF-E64728D0A7E0}"/>
+              <c16:uniqueId val="{00000000-FDE3-41D6-A32F-2CBCABA1A0B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -387,11 +441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1075230335"/>
-        <c:axId val="1075230815"/>
+        <c:axId val="559193311"/>
+        <c:axId val="559195711"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1075230335"/>
+        <c:axId val="559193311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,6 +465,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>sterowanie</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -445,15 +555,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075230815"/>
+        <c:crossAx val="559195711"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1075230815"/>
+        <c:axId val="559195711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,6 +583,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>prędkość obrotowa [rad/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -507,10 +673,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075230335"/>
+        <c:crossAx val="559193311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -555,7 +721,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1126,23 +1292,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>303988</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>12159</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42153</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
+        <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94805015-421B-2784-70C4-66E10CF8ED2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B780760D-CBB6-3F74-1395-8ACE9E028C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,15 +1646,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8296AF1C-72FB-4290-8141-60C28864AA8B}">
-  <dimension ref="B3:I32"/>
+  <dimension ref="A3:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="116" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1496,175 +1662,259 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-1</v>
+      </c>
       <c r="B4">
-        <v>-1</v>
+        <f>A4/2</f>
+        <v>-0.5</v>
       </c>
       <c r="C4">
         <v>-214.6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-0.9</v>
+      </c>
       <c r="B5">
-        <v>-0.9</v>
+        <f t="shared" ref="B5:B24" si="0">A5/2</f>
+        <v>-0.45</v>
       </c>
       <c r="C5">
         <v>-192.1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-0.8</v>
+      </c>
       <c r="B6">
-        <v>-0.8</v>
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
       </c>
       <c r="C6">
         <v>-170.1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-0.7</v>
+      </c>
       <c r="B7">
-        <v>-0.7</v>
+        <f t="shared" si="0"/>
+        <v>-0.35</v>
       </c>
       <c r="C7">
         <v>-147.19999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-0.6</v>
+      </c>
       <c r="B8">
-        <v>-0.6</v>
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
       </c>
       <c r="C8">
         <v>-125.1</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-0.5</v>
+      </c>
       <c r="B9">
-        <v>-0.5</v>
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
       </c>
       <c r="C9">
         <v>-102.9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-0.4</v>
+      </c>
       <c r="B10">
-        <v>-0.4</v>
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
       </c>
       <c r="C10">
         <v>-79.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-0.3</v>
+      </c>
       <c r="B11">
-        <v>-0.3</v>
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
       </c>
       <c r="C11">
         <v>-56.64</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-0.2</v>
+      </c>
       <c r="B12">
-        <v>-0.2</v>
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
       </c>
       <c r="C12">
         <v>-33.4</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-0.1</v>
+      </c>
       <c r="B13">
-        <v>-0.1</v>
+        <f t="shared" si="0"/>
+        <v>-0.05</v>
       </c>
       <c r="C13">
         <v>-10.45</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
       <c r="B14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.1</v>
+      </c>
       <c r="B15">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="C15">
         <v>13.5</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.2</v>
+      </c>
       <c r="B16">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="C16">
         <v>36.6</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.3</v>
+      </c>
       <c r="B17">
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.15</v>
       </c>
       <c r="C17">
         <v>59.25</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.4</v>
+      </c>
       <c r="B18">
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="C18">
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.5</v>
+      </c>
       <c r="B19">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="C19">
         <v>104.2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.6</v>
+      </c>
       <c r="B20">
-        <v>0.6</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="C20">
         <v>126.4</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.7</v>
+      </c>
       <c r="B21">
-        <v>0.7</v>
+        <f t="shared" si="0"/>
+        <v>0.35</v>
       </c>
       <c r="C21">
         <v>148.69999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.8</v>
+      </c>
       <c r="B22">
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="C22">
         <v>171.3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.9</v>
+      </c>
       <c r="B23">
-        <v>0.9</v>
+        <f t="shared" si="0"/>
+        <v>0.45</v>
       </c>
       <c r="C23">
         <v>194.3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
       <c r="B24">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="C24">
         <v>216.5</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1966,7 @@
         <v>2.3255887500000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>9</v>
       </c>
